--- a/wjj/11/11data.xlsx
+++ b/wjj/11/11data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuit-Experiment\wjj\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\共享文件\Circuit-Experiment\wjj\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244726E9-AD38-4F18-AC29-434C4C52A8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1073A63D-2D74-4D75-A3E1-25D419CD7021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,22 +152,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,17 +469,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
       <c r="C1">
         <v>200</v>
       </c>
@@ -507,8 +532,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -566,8 +591,8 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -623,8 +648,8 @@
         <v>0.48780000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -697,8 +722,8 @@
         <v>2.4390000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -771,11 +796,11 @@
         <v>997.12997129971291</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -833,8 +858,8 @@
         <v>2.173</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -890,8 +915,8 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -964,8 +989,8 @@
         <v>6.7500000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1038,8 +1063,8 @@
         <v>321.92592592592587</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1095,8 +1120,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1152,9 +1177,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13">
@@ -1226,12 +1251,12 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="C15">
         <v>200</v>
       </c>
@@ -1284,8 +1309,8 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -1343,8 +1368,8 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -1400,8 +1425,8 @@
         <v>2.3519999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>12</v>
       </c>
@@ -1474,8 +1499,8 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -1548,8 +1573,8 @@
         <v>66.83673469387756</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1605,8 +1630,8 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -1662,9 +1687,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C22">
@@ -1747,4 +1772,1360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E1837C-BE49-4716-9BD0-8D6DC19E93BE}">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="P1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.497</v>
+      </c>
+      <c r="D3" s="10">
+        <f>C3/200*1000</f>
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="E3" s="8">
+        <f>B3/(D3/1000)</f>
+        <v>1008.0482897384306</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="J3" s="10">
+        <f>I3/200*1000</f>
+        <v>9.69</v>
+      </c>
+      <c r="K3" s="8">
+        <f>H3/(J3/1000)</f>
+        <v>62.022703818369457</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3" s="8">
+        <f>L3/M3*360</f>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="P3">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2.9460000000000002</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="S3" s="10">
+        <f>R3/200*1000</f>
+        <v>3.5709999999999997</v>
+      </c>
+      <c r="T3" s="8">
+        <f>Q3/(S3/1000)</f>
+        <v>824.97899747969768</v>
+      </c>
+      <c r="U3">
+        <v>-6</v>
+      </c>
+      <c r="V3">
+        <v>25</v>
+      </c>
+      <c r="W3" s="8">
+        <f>U3/V3*360</f>
+        <v>-86.399999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <f>C4/200*1000</f>
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="E4" s="8">
+        <f>B4/(D4/1000)</f>
+        <v>1003.2921810699589</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="J4" s="10">
+        <f>I4/200*1000</f>
+        <v>9.6649999999999991</v>
+      </c>
+      <c r="K4" s="8">
+        <f>H4/(J4/1000)</f>
+        <v>69.943093636833936</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4" s="8">
+        <f>L4/M4*360</f>
+        <v>36</v>
+      </c>
+      <c r="P4">
+        <v>340</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2.6379999999999999</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S4" s="10">
+        <f>R4/200*1000</f>
+        <v>5.75</v>
+      </c>
+      <c r="T4" s="8">
+        <f>Q4/(S4/1000)</f>
+        <v>458.78260869565219</v>
+      </c>
+      <c r="U4">
+        <v>-7</v>
+      </c>
+      <c r="V4">
+        <v>29.5</v>
+      </c>
+      <c r="W4" s="8">
+        <f>U4/V4*360</f>
+        <v>-85.423728813559322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="10">
+        <f>C5/200*1000</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="E5" s="8">
+        <f>B5/(D5/1000)</f>
+        <v>1003.265306122449</v>
+      </c>
+      <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="J5" s="10">
+        <f>I5/200*1000</f>
+        <v>9.6649999999999991</v>
+      </c>
+      <c r="K5" s="8">
+        <f>H5/(J5/1000)</f>
+        <v>80.393171236420073</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>31</v>
+      </c>
+      <c r="N5" s="8">
+        <f>L5/M5*360</f>
+        <v>46.451612903225808</v>
+      </c>
+      <c r="P5">
+        <v>480</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="S5" s="10">
+        <f>R5/200*1000</f>
+        <v>7.2499999999999991</v>
+      </c>
+      <c r="T5" s="8">
+        <f>Q5/(S5/1000)</f>
+        <v>336.13793103448273</v>
+      </c>
+      <c r="U5">
+        <v>-5.5</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5" s="8">
+        <f>U5/V5*360</f>
+        <v>-94.285714285714292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <f>C6/200*1000</f>
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <f>B6/(D6/1000)</f>
+        <v>1001.6293279022403</v>
+      </c>
+      <c r="G6">
+        <v>1100</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="J6" s="10">
+        <f>I6/200*1000</f>
+        <v>9.5300000000000011</v>
+      </c>
+      <c r="K6" s="8">
+        <f>H6/(J6/1000)</f>
+        <v>94.753410283315844</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6" s="8">
+        <f>L6/M6*360</f>
+        <v>48</v>
+      </c>
+      <c r="P6">
+        <v>620</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2.17</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1.679</v>
+      </c>
+      <c r="S6" s="10">
+        <f>R6/200*1000</f>
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="T6" s="8">
+        <f>Q6/(S6/1000)</f>
+        <v>258.48719475878499</v>
+      </c>
+      <c r="U6">
+        <v>-10.5</v>
+      </c>
+      <c r="V6">
+        <v>40.5</v>
+      </c>
+      <c r="W6" s="8">
+        <f>U6/V6*360</f>
+        <v>-93.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1400</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="D7" s="10">
+        <f>C7/200*1000</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="E7" s="8">
+        <f>B7/(D7/1000)</f>
+        <v>1001.6326530612246</v>
+      </c>
+      <c r="G7">
+        <v>1400</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="J7" s="10">
+        <f>I7/200*1000</f>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K7" s="8">
+        <f>H7/(J7/1000)</f>
+        <v>110.52060737527113</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7" s="8">
+        <f>L7/M7*360</f>
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>760</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1.87</v>
+      </c>
+      <c r="S7" s="10">
+        <f>R7/200*1000</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="T7" s="8">
+        <f>Q7/(S7/1000)</f>
+        <v>205.98930481283421</v>
+      </c>
+      <c r="U7">
+        <v>-8.5</v>
+      </c>
+      <c r="V7">
+        <v>33</v>
+      </c>
+      <c r="W7" s="8">
+        <f>U7/V7*360</f>
+        <v>-92.72727272727272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1700</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="D8" s="10">
+        <f>C8/200*1000</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="E8" s="8">
+        <f>B8/(D8/1000)</f>
+        <v>997.14285714285722</v>
+      </c>
+      <c r="G8">
+        <v>1700</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1.171</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="J8" s="10">
+        <f>I8/200*1000</f>
+        <v>9.0649999999999995</v>
+      </c>
+      <c r="K8" s="8">
+        <f>H8/(J8/1000)</f>
+        <v>129.17815774958632</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>59</v>
+      </c>
+      <c r="N8" s="8">
+        <f>L8/M8*360</f>
+        <v>61.016949152542367</v>
+      </c>
+      <c r="P8">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1.964</v>
+      </c>
+      <c r="S8" s="10">
+        <f>R8/200*1000</f>
+        <v>9.82</v>
+      </c>
+      <c r="T8" s="8">
+        <f>Q8/(S8/1000)</f>
+        <v>178.51323828920567</v>
+      </c>
+      <c r="U8">
+        <v>-7</v>
+      </c>
+      <c r="V8">
+        <v>28</v>
+      </c>
+      <c r="W8" s="8">
+        <f>U8/V8*360</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D9" s="10">
+        <f>C9/200*1000</f>
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <f>B9/(D9/1000)</f>
+        <v>999.59266802443994</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.742</v>
+      </c>
+      <c r="J9" s="10">
+        <f>I9/200*1000</f>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="K9" s="8">
+        <f>H9/(J9/1000)</f>
+        <v>150.97588978185991</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9" s="8">
+        <f>L9/M9*360</f>
+        <v>64.8</v>
+      </c>
+      <c r="P9">
+        <v>1040</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2.08</v>
+      </c>
+      <c r="S9" s="10">
+        <f>R9/200*1000</f>
+        <v>10.4</v>
+      </c>
+      <c r="T9" s="8">
+        <f>Q9/(S9/1000)</f>
+        <v>150.57692307692309</v>
+      </c>
+      <c r="U9">
+        <v>-6</v>
+      </c>
+      <c r="V9">
+        <v>24</v>
+      </c>
+      <c r="W9" s="8">
+        <f>U9/V9*360</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2300</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D10" s="10">
+        <f>C10/200*1000</f>
+        <v>2.4250000000000003</v>
+      </c>
+      <c r="E10" s="8">
+        <f>B10/(D10/1000)</f>
+        <v>998.76288659793818</v>
+      </c>
+      <c r="G10">
+        <v>2300</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="J10" s="10">
+        <f>I10/200*1000</f>
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="K10" s="8">
+        <f>H10/(J10/1000)</f>
+        <v>168.00934033858729</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>43</v>
+      </c>
+      <c r="N10" s="8">
+        <f>L10/M10*360</f>
+        <v>66.976744186046517</v>
+      </c>
+      <c r="P10">
+        <v>1180</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="S10" s="10">
+        <f>R10/200*1000</f>
+        <v>10.695</v>
+      </c>
+      <c r="T10" s="8">
+        <f>Q10/(S10/1000)</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="U10">
+        <v>-10</v>
+      </c>
+      <c r="V10">
+        <v>42</v>
+      </c>
+      <c r="W10" s="8">
+        <f>U10/V10*360</f>
+        <v>-85.714285714285708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2600</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <f>C11/200*1000</f>
+        <v>2.4135000000000004</v>
+      </c>
+      <c r="E11" s="8">
+        <f>B11/(D11/1000)</f>
+        <v>998.13548788067101</v>
+      </c>
+      <c r="G11">
+        <v>2600</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="J11" s="10">
+        <f>I11/200*1000</f>
+        <v>8.36</v>
+      </c>
+      <c r="K11" s="8">
+        <f>H11/(J11/1000)</f>
+        <v>184.56937799043064</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>38</v>
+      </c>
+      <c r="N11" s="8">
+        <f>L11/M11*360</f>
+        <v>66.315789473684205</v>
+      </c>
+      <c r="P11">
+        <v>1320</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="R11" s="10">
+        <v>2.141</v>
+      </c>
+      <c r="S11" s="10">
+        <f>R11/200*1000</f>
+        <v>10.705</v>
+      </c>
+      <c r="T11" s="8">
+        <f>Q11/(S11/1000)</f>
+        <v>125.73563755254555</v>
+      </c>
+      <c r="U11">
+        <v>-9</v>
+      </c>
+      <c r="V11">
+        <v>38</v>
+      </c>
+      <c r="W11" s="8">
+        <f>U11/V11*360</f>
+        <v>-85.263157894736835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2900</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.4849</v>
+      </c>
+      <c r="D12" s="10">
+        <f>C12/200*1000</f>
+        <v>2.4245000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <f>B12/(D12/1000)</f>
+        <v>995.66921014642196</v>
+      </c>
+      <c r="G12">
+        <v>2900</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1.639</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="J12" s="10">
+        <f>I12/200*1000</f>
+        <v>8.2399999999999984</v>
+      </c>
+      <c r="K12" s="8">
+        <f>H12/(J12/1000)</f>
+        <v>198.90776699029129</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>34</v>
+      </c>
+      <c r="N12" s="8">
+        <f>L12/M12*360</f>
+        <v>74.117647058823522</v>
+      </c>
+      <c r="P12">
+        <v>1460</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="R12" s="10">
+        <v>2.194</v>
+      </c>
+      <c r="S12" s="10">
+        <f>R12/200*1000</f>
+        <v>10.97</v>
+      </c>
+      <c r="T12" s="8">
+        <f>Q12/(S12/1000)</f>
+        <v>111.85050136736554</v>
+      </c>
+      <c r="U12">
+        <v>-8</v>
+      </c>
+      <c r="V12">
+        <v>34</v>
+      </c>
+      <c r="W12" s="8">
+        <f>U12/V12*360</f>
+        <v>-84.705882352941174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3200</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <f>C13/200*1000</f>
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="E13" s="8">
+        <f>B13/(D13/1000)</f>
+        <v>996.71322925225968</v>
+      </c>
+      <c r="G13">
+        <v>3200</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="J13" s="10">
+        <f>I13/200*1000</f>
+        <v>8.0200000000000014</v>
+      </c>
+      <c r="K13" s="8">
+        <f>H13/(J13/1000)</f>
+        <v>216.08478802992516</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+      <c r="N13" s="8">
+        <f>L13/M13*360</f>
+        <v>69.677419354838705</v>
+      </c>
+      <c r="P13">
+        <v>1600</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>1.131</v>
+      </c>
+      <c r="R13" s="10">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="S13" s="10">
+        <f>R13/200*1000</f>
+        <v>11.135</v>
+      </c>
+      <c r="T13" s="8">
+        <f>Q13/(S13/1000)</f>
+        <v>101.57162101481815</v>
+      </c>
+      <c r="U13">
+        <v>-7.5</v>
+      </c>
+      <c r="V13">
+        <v>31.5</v>
+      </c>
+      <c r="W13" s="8">
+        <f>U13/V13*360</f>
+        <v>-85.714285714285708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3500</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2.4540000000000002</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="D14" s="10">
+        <f>C14/200*1000</f>
+        <v>2.4615</v>
+      </c>
+      <c r="E14" s="8">
+        <f>B14/(D14/1000)</f>
+        <v>996.95307739183431</v>
+      </c>
+      <c r="G14">
+        <v>3500</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="J14" s="10">
+        <f>I14/200*1000</f>
+        <v>7.88</v>
+      </c>
+      <c r="K14" s="8">
+        <f>H14/(J14/1000)</f>
+        <v>229.31472081218274</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14" s="8">
+        <f>L14/M14*360</f>
+        <v>77.142857142857139</v>
+      </c>
+      <c r="P14">
+        <v>1740</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="R14" s="10">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="S14" s="10">
+        <f>R14/200*1000</f>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="T14" s="8">
+        <f>Q14/(S14/1000)</f>
+        <v>93.185840707964601</v>
+      </c>
+      <c r="U14">
+        <v>-7</v>
+      </c>
+      <c r="V14">
+        <v>29</v>
+      </c>
+      <c r="W14" s="8">
+        <f>U14/V14*360</f>
+        <v>-86.896551724137936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3800</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="D15" s="10">
+        <f>C15/200*1000</f>
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="E15" s="8">
+        <f>B15/(D15/1000)</f>
+        <v>997.50623441396499</v>
+      </c>
+      <c r="G15">
+        <v>3800</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1.861</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="J15" s="10">
+        <f>I15/200*1000</f>
+        <v>7.7</v>
+      </c>
+      <c r="K15" s="8">
+        <f>H15/(J15/1000)</f>
+        <v>241.68831168831167</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15" s="8">
+        <f>L15/M15*360</f>
+        <v>69.230769230769241</v>
+      </c>
+      <c r="P15">
+        <v>1880</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="R15" s="10">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="S15" s="10">
+        <f>R15/200*1000</f>
+        <v>11.254999999999999</v>
+      </c>
+      <c r="T15" s="8">
+        <f>Q15/(S15/1000)</f>
+        <v>89.115948467347835</v>
+      </c>
+      <c r="U15">
+        <v>-7</v>
+      </c>
+      <c r="V15">
+        <v>26.5</v>
+      </c>
+      <c r="W15" s="8">
+        <f>U15/V15*360</f>
+        <v>-95.094339622641513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4100</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.49430000000000002</v>
+      </c>
+      <c r="D16" s="10">
+        <f>C16/200*1000</f>
+        <v>2.4715000000000003</v>
+      </c>
+      <c r="E16" s="8">
+        <f>B16/(D16/1000)</f>
+        <v>998.9884685413715</v>
+      </c>
+      <c r="G16">
+        <v>4100</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1.492</v>
+      </c>
+      <c r="J16" s="10">
+        <f>I16/200*1000</f>
+        <v>7.46</v>
+      </c>
+      <c r="K16" s="8">
+        <f>H16/(J16/1000)</f>
+        <v>264.74530831099196</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>61</v>
+      </c>
+      <c r="N16" s="8">
+        <f>L16/M16*360</f>
+        <v>70.819672131147541</v>
+      </c>
+      <c r="P16">
+        <v>2020</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="R16" s="10">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="S16" s="10">
+        <f>R16/200*1000</f>
+        <v>11.385000000000002</v>
+      </c>
+      <c r="T16" s="8">
+        <f>Q16/(S16/1000)</f>
+        <v>82.03776899429073</v>
+      </c>
+      <c r="U16">
+        <v>-6</v>
+      </c>
+      <c r="V16">
+        <v>25</v>
+      </c>
+      <c r="W16" s="8">
+        <f>U16/V16*360</f>
+        <v>-86.399999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4400</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2.407</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.4824</v>
+      </c>
+      <c r="D17" s="10">
+        <f>C17/200*1000</f>
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="E17" s="8">
+        <f>B17/(D17/1000)</f>
+        <v>997.92703150912109</v>
+      </c>
+      <c r="G17">
+        <v>4400</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.413</v>
+      </c>
+      <c r="J17" s="10">
+        <f>I17/200*1000</f>
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="K17" s="8">
+        <f>H17/(J17/1000)</f>
+        <v>293.27671620665251</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>57</v>
+      </c>
+      <c r="N17" s="8">
+        <f>L17/M17*360</f>
+        <v>75.78947368421052</v>
+      </c>
+      <c r="P17">
+        <v>2160</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0.871</v>
+      </c>
+      <c r="R17" s="10">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="S17" s="10">
+        <f>R17/200*1000</f>
+        <v>11.535</v>
+      </c>
+      <c r="T17" s="8">
+        <f>Q17/(S17/1000)</f>
+        <v>75.509319462505417</v>
+      </c>
+      <c r="U17">
+        <v>-6</v>
+      </c>
+      <c r="V17">
+        <v>23</v>
+      </c>
+      <c r="W17" s="8">
+        <f>U17/V17*360</f>
+        <v>-93.91304347826086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4700</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.4470000000000001</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.49030000000000001</v>
+      </c>
+      <c r="D18" s="10">
+        <f>C18/200*1000</f>
+        <v>2.4515000000000002</v>
+      </c>
+      <c r="E18" s="8">
+        <f>B18/(D18/1000)</f>
+        <v>998.16438914950027</v>
+      </c>
+      <c r="G18">
+        <v>4700</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.39</v>
+      </c>
+      <c r="J18" s="10">
+        <f>I18/200*1000</f>
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="K18" s="8">
+        <f>H18/(J18/1000)</f>
+        <v>302.15827338129498</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>53</v>
+      </c>
+      <c r="N18" s="8">
+        <f>L18/M18*360</f>
+        <v>74.716981132075475</v>
+      </c>
+      <c r="P18">
+        <v>2300</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="R18" s="10">
+        <v>2.323</v>
+      </c>
+      <c r="S18" s="10">
+        <f>R18/200*1000</f>
+        <v>11.615</v>
+      </c>
+      <c r="T18" s="8">
+        <f>Q18/(S18/1000)</f>
+        <v>70.684459750322858</v>
+      </c>
+      <c r="U18">
+        <v>-11</v>
+      </c>
+      <c r="V18">
+        <v>43.5</v>
+      </c>
+      <c r="W18" s="8">
+        <f>U18/V18*360</f>
+        <v>-91.034482758620697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5000</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="D19" s="10">
+        <f>C19/200*1000</f>
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="E19" s="8">
+        <f>B19/(D19/1000)</f>
+        <v>997.12997129971291</v>
+      </c>
+      <c r="G19">
+        <v>5000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2.173</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="J19" s="10">
+        <f>I19/200*1000</f>
+        <v>6.7500000000000009</v>
+      </c>
+      <c r="K19" s="8">
+        <f>H19/(J19/1000)</f>
+        <v>321.92592592592587</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19" s="8">
+        <f>L19/M19*360</f>
+        <v>79.2</v>
+      </c>
+      <c r="P19">
+        <v>2440</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="R19" s="10">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="S19" s="10">
+        <f>R19/200*1000</f>
+        <v>11.76</v>
+      </c>
+      <c r="T19" s="8">
+        <f>Q19/(S19/1000)</f>
+        <v>66.83673469387756</v>
+      </c>
+      <c r="U19">
+        <v>-11</v>
+      </c>
+      <c r="V19">
+        <v>41</v>
+      </c>
+      <c r="W19" s="8">
+        <f>U19/V19*360</f>
+        <v>-96.585365853658544</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>